--- a/_CIPW/CIPW/AREA2b/QAPF_control_points.xlsx
+++ b/_CIPW/CIPW/AREA2b/QAPF_control_points.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J103"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -415,13 +415,13 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>511633.8693545141</v>
+        <v>566277.769165482</v>
       </c>
       <c r="C2" t="n">
-        <v>5052402.86957611</v>
+        <v>5115579.534585773</v>
       </c>
       <c r="D2" t="n">
         <v>53</v>
@@ -435,13 +435,13 @@
         <v>7</v>
       </c>
       <c r="G2" t="n">
-        <v>52.5495071</v>
+        <v>42.4452934</v>
       </c>
       <c r="H2" t="n">
-        <v>17.91281806</v>
+        <v>29.966573567</v>
       </c>
       <c r="I2" t="n">
-        <v>22.93120235</v>
+        <v>23.52388994</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -451,13 +451,13 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="B3" t="n">
-        <v>535530.3623554939</v>
+        <v>511633.8693545141</v>
       </c>
       <c r="C3" t="n">
-        <v>5123776.190199913</v>
+        <v>5052402.86957611</v>
       </c>
       <c r="D3" t="n">
         <v>53</v>
@@ -471,13 +471,13 @@
         <v>7</v>
       </c>
       <c r="G3" t="n">
-        <v>45.9404335</v>
+        <v>43.3705826</v>
       </c>
       <c r="H3" t="n">
-        <v>19.08638361</v>
+        <v>25.74272768</v>
       </c>
       <c r="I3" t="n">
-        <v>32.35765284</v>
+        <v>27.40755904</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -487,13 +487,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B4" t="n">
-        <v>523597.9311412078</v>
+        <v>535530.3623554939</v>
       </c>
       <c r="C4" t="n">
-        <v>5094251.540728195</v>
+        <v>5123776.190199913</v>
       </c>
       <c r="D4" t="n">
         <v>53</v>
@@ -507,29 +507,29 @@
         <v>7</v>
       </c>
       <c r="G4" t="n">
-        <v>50.7399864</v>
+        <v>39.4318542</v>
       </c>
       <c r="H4" t="n">
-        <v>6.408381031</v>
+        <v>27.59283144</v>
       </c>
       <c r="I4" t="n">
-        <v>37.371889561</v>
+        <v>30.1320755</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>syeno granite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="B5" t="n">
-        <v>529209.3649673751</v>
+        <v>523597.9311412078</v>
       </c>
       <c r="C5" t="n">
-        <v>5079916.200809987</v>
+        <v>5094251.540728195</v>
       </c>
       <c r="D5" t="n">
         <v>53</v>
@@ -543,29 +543,29 @@
         <v>7</v>
       </c>
       <c r="G5" t="n">
-        <v>41.4071159</v>
+        <v>44.3882294</v>
       </c>
       <c r="H5" t="n">
-        <v>23.23236069</v>
+        <v>14.69297224</v>
       </c>
       <c r="I5" t="n">
-        <v>27.59011291</v>
+        <v>36.48134464</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>syeno granite</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>149</v>
       </c>
       <c r="B6" t="n">
-        <v>526764.6839284271</v>
+        <v>529209.3649673751</v>
       </c>
       <c r="C6" t="n">
-        <v>5074365.087646829</v>
+        <v>5079916.200809987</v>
       </c>
       <c r="D6" t="n">
         <v>53</v>
@@ -579,13 +579,13 @@
         <v>7</v>
       </c>
       <c r="G6" t="n">
-        <v>54.6330299</v>
+        <v>39.2879219</v>
       </c>
       <c r="H6" t="n">
-        <v>17.94556316</v>
+        <v>26.19320367</v>
       </c>
       <c r="I6" t="n">
-        <v>19.7448489</v>
+        <v>29.27406011</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -595,13 +595,13 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>6</v>
+        <v>160</v>
       </c>
       <c r="B7" t="n">
-        <v>549415.5719075236</v>
+        <v>526764.6839284271</v>
       </c>
       <c r="C7" t="n">
-        <v>5074339.787028058</v>
+        <v>5074365.087646829</v>
       </c>
       <c r="D7" t="n">
         <v>53</v>
@@ -615,13 +615,13 @@
         <v>7</v>
       </c>
       <c r="G7" t="n">
-        <v>44.2663574</v>
+        <v>39.5013847</v>
       </c>
       <c r="H7" t="n">
-        <v>25.08967019</v>
+        <v>22.30649781</v>
       </c>
       <c r="I7" t="n">
-        <v>25.70468251</v>
+        <v>32.92468543</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -631,13 +631,13 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>7</v>
+        <v>246</v>
       </c>
       <c r="B8" t="n">
-        <v>538772.1590366237</v>
+        <v>549415.5719075236</v>
       </c>
       <c r="C8" t="n">
-        <v>5084907.190346171</v>
+        <v>5074339.787028058</v>
       </c>
       <c r="D8" t="n">
         <v>53</v>
@@ -651,13 +651,13 @@
         <v>7</v>
       </c>
       <c r="G8" t="n">
-        <v>43.9374886</v>
+        <v>33.3633118</v>
       </c>
       <c r="H8" t="n">
-        <v>28.83222888</v>
+        <v>27.18588428</v>
       </c>
       <c r="I8" t="n">
-        <v>23.94593773</v>
+        <v>35.50717527</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -667,13 +667,13 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>8</v>
+        <v>399</v>
       </c>
       <c r="B9" t="n">
-        <v>566870.6008563933</v>
+        <v>538772.1590366237</v>
       </c>
       <c r="C9" t="n">
-        <v>5115700.671312595</v>
+        <v>5084907.190346171</v>
       </c>
       <c r="D9" t="n">
         <v>53</v>
@@ -687,29 +687,29 @@
         <v>7</v>
       </c>
       <c r="G9" t="n">
-        <v>55.6655121</v>
+        <v>34.665863</v>
       </c>
       <c r="H9" t="n">
-        <v>16.85702076</v>
+        <v>31.37810304</v>
       </c>
       <c r="I9" t="n">
-        <v>19.69759538</v>
+        <v>28.71094515</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>quartz-rich granitoid</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>9</v>
+        <v>490</v>
       </c>
       <c r="B10" t="n">
-        <v>535006.554645763</v>
+        <v>566870.6008563933</v>
       </c>
       <c r="C10" t="n">
-        <v>5046777.746141856</v>
+        <v>5115700.671312595</v>
       </c>
       <c r="D10" t="n">
         <v>53</v>
@@ -723,13 +723,13 @@
         <v>7</v>
       </c>
       <c r="G10" t="n">
-        <v>47.0682907</v>
+        <v>34.2893906</v>
       </c>
       <c r="H10" t="n">
-        <v>20.36187018</v>
+        <v>34.23371400000001</v>
       </c>
       <c r="I10" t="n">
-        <v>25.34082052</v>
+        <v>27.81188618</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -739,13 +739,13 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>10</v>
+        <v>504</v>
       </c>
       <c r="B11" t="n">
-        <v>522005.9180826652</v>
+        <v>535006.554645763</v>
       </c>
       <c r="C11" t="n">
-        <v>5075012.046768976</v>
+        <v>5046777.746141856</v>
       </c>
       <c r="D11" t="n">
         <v>53</v>
@@ -759,13 +759,13 @@
         <v>7</v>
       </c>
       <c r="G11" t="n">
-        <v>43.176609</v>
+        <v>36.7839279</v>
       </c>
       <c r="H11" t="n">
-        <v>23.08839618</v>
+        <v>26.96316456</v>
       </c>
       <c r="I11" t="n">
-        <v>30.23091865</v>
+        <v>30.75454787</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -775,13 +775,13 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>11</v>
+        <v>507</v>
       </c>
       <c r="B12" t="n">
-        <v>532502.9655767003</v>
+        <v>522005.9180826652</v>
       </c>
       <c r="C12" t="n">
-        <v>5045660.084948873</v>
+        <v>5075012.046768976</v>
       </c>
       <c r="D12" t="n">
         <v>53</v>
@@ -795,13 +795,13 @@
         <v>7</v>
       </c>
       <c r="G12" t="n">
-        <v>41.1543427</v>
+        <v>43.6365166</v>
       </c>
       <c r="H12" t="n">
-        <v>26.50388061</v>
+        <v>21.79073323</v>
       </c>
       <c r="I12" t="n">
-        <v>28.94276394</v>
+        <v>26.10822064</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -811,13 +811,13 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>12</v>
+        <v>520</v>
       </c>
       <c r="B13" t="n">
-        <v>536091.683179431</v>
+        <v>532502.9655767003</v>
       </c>
       <c r="C13" t="n">
-        <v>5046785.991084191</v>
+        <v>5045660.084948873</v>
       </c>
       <c r="D13" t="n">
         <v>53</v>
@@ -831,13 +831,13 @@
         <v>7</v>
       </c>
       <c r="G13" t="n">
-        <v>46.4283485</v>
+        <v>35.1969948</v>
       </c>
       <c r="H13" t="n">
-        <v>23.57185782</v>
+        <v>30.23357578</v>
       </c>
       <c r="I13" t="n">
-        <v>26.29028945</v>
+        <v>29.91568662</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -847,13 +847,13 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>13</v>
+        <v>534</v>
       </c>
       <c r="B14" t="n">
-        <v>536857.2019392489</v>
+        <v>536091.683179431</v>
       </c>
       <c r="C14" t="n">
-        <v>5134276.889473234</v>
+        <v>5046785.991084191</v>
       </c>
       <c r="D14" t="n">
         <v>53</v>
@@ -867,13 +867,13 @@
         <v>7</v>
       </c>
       <c r="G14" t="n">
-        <v>42.565918</v>
+        <v>34.4519196</v>
       </c>
       <c r="H14" t="n">
-        <v>29.622711602</v>
+        <v>29.61631595</v>
       </c>
       <c r="I14" t="n">
-        <v>23.51210286</v>
+        <v>30.32313972</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -883,13 +883,13 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>14</v>
+        <v>554</v>
       </c>
       <c r="B15" t="n">
-        <v>517088.5554418999</v>
+        <v>536857.2019392489</v>
       </c>
       <c r="C15" t="n">
-        <v>5048570.709433137</v>
+        <v>5134276.889473234</v>
       </c>
       <c r="D15" t="n">
         <v>53</v>
@@ -903,13 +903,13 @@
         <v>7</v>
       </c>
       <c r="G15" t="n">
-        <v>36.5084763</v>
+        <v>35.0974159</v>
       </c>
       <c r="H15" t="n">
-        <v>32.99593104800001</v>
+        <v>28.15580874</v>
       </c>
       <c r="I15" t="n">
-        <v>27.84845204</v>
+        <v>31.96801892</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -919,13 +919,13 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>15</v>
+        <v>556</v>
       </c>
       <c r="B16" t="n">
-        <v>544475.3804828557</v>
+        <v>517088.5554418999</v>
       </c>
       <c r="C16" t="n">
-        <v>5100375.586226066</v>
+        <v>5048570.709433137</v>
       </c>
       <c r="D16" t="n">
         <v>53</v>
@@ -939,13 +939,13 @@
         <v>7</v>
       </c>
       <c r="G16" t="n">
-        <v>42.2152519</v>
+        <v>33.971241</v>
       </c>
       <c r="H16" t="n">
-        <v>25.20435434</v>
+        <v>29.68725429</v>
       </c>
       <c r="I16" t="n">
-        <v>29.46938077</v>
+        <v>32.76080853</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -955,13 +955,13 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>16</v>
+        <v>612</v>
       </c>
       <c r="B17" t="n">
-        <v>567972.8439038175</v>
+        <v>544475.3804828557</v>
       </c>
       <c r="C17" t="n">
-        <v>5151524.060851803</v>
+        <v>5100375.586226066</v>
       </c>
       <c r="D17" t="n">
         <v>53</v>
@@ -975,13 +975,13 @@
         <v>7</v>
       </c>
       <c r="G17" t="n">
-        <v>40.7807312</v>
+        <v>34.6542931</v>
       </c>
       <c r="H17" t="n">
-        <v>33.10163585</v>
+        <v>27.98873709</v>
       </c>
       <c r="I17" t="n">
-        <v>20.12792172</v>
+        <v>32.84674076</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -991,13 +991,13 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>17</v>
+        <v>630</v>
       </c>
       <c r="B18" t="n">
-        <v>539853.768380278</v>
+        <v>567972.8439038175</v>
       </c>
       <c r="C18" t="n">
-        <v>5049411.85653386</v>
+        <v>5151524.060851803</v>
       </c>
       <c r="D18" t="n">
         <v>53</v>
@@ -1011,13 +1011,13 @@
         <v>7</v>
       </c>
       <c r="G18" t="n">
-        <v>40.3328285</v>
+        <v>37.0424614</v>
       </c>
       <c r="H18" t="n">
-        <v>28.03048076</v>
+        <v>24.80667633</v>
       </c>
       <c r="I18" t="n">
-        <v>26.58559136</v>
+        <v>33.35228974</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1027,13 +1027,13 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>18</v>
+        <v>636</v>
       </c>
       <c r="B19" t="n">
-        <v>520469.6535882251</v>
+        <v>539853.768380278</v>
       </c>
       <c r="C19" t="n">
-        <v>5045760.836893299</v>
+        <v>5049411.85653386</v>
       </c>
       <c r="D19" t="n">
         <v>53</v>
@@ -1047,13 +1047,13 @@
         <v>7</v>
       </c>
       <c r="G19" t="n">
-        <v>38.571064</v>
+        <v>31.1716843</v>
       </c>
       <c r="H19" t="n">
-        <v>29.62404541</v>
+        <v>30.20981499</v>
       </c>
       <c r="I19" t="n">
-        <v>28.67475506</v>
+        <v>33.37769414</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1063,13 +1063,13 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>19</v>
+        <v>651</v>
       </c>
       <c r="B20" t="n">
-        <v>524375.9095626166</v>
+        <v>520469.6535882251</v>
       </c>
       <c r="C20" t="n">
-        <v>5051056.839976584</v>
+        <v>5045760.836893299</v>
       </c>
       <c r="D20" t="n">
         <v>53</v>
@@ -1083,13 +1083,13 @@
         <v>7</v>
       </c>
       <c r="G20" t="n">
-        <v>46.4409256</v>
+        <v>31.7680073</v>
       </c>
       <c r="H20" t="n">
-        <v>23.36866734</v>
+        <v>33.78097441000001</v>
       </c>
       <c r="I20" t="n">
-        <v>25.92783239</v>
+        <v>29.46551623</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1099,13 +1099,13 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>20</v>
+        <v>661</v>
       </c>
       <c r="B21" t="n">
-        <v>519433.8664418255</v>
+        <v>524375.9095626166</v>
       </c>
       <c r="C21" t="n">
-        <v>5072640.790261214</v>
+        <v>5051056.839976584</v>
       </c>
       <c r="D21" t="n">
         <v>53</v>
@@ -1119,13 +1119,13 @@
         <v>7</v>
       </c>
       <c r="G21" t="n">
-        <v>44.6015587</v>
+        <v>30.7296963</v>
       </c>
       <c r="H21" t="n">
-        <v>26.86724868</v>
+        <v>34.85889545</v>
       </c>
       <c r="I21" t="n">
-        <v>23.40400467</v>
+        <v>30.2888256</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1135,13 +1135,13 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>21</v>
+        <v>667</v>
       </c>
       <c r="B22" t="n">
-        <v>558107.6722974024</v>
+        <v>519433.8664418255</v>
       </c>
       <c r="C22" t="n">
-        <v>5091366.275623359</v>
+        <v>5072640.790261214</v>
       </c>
       <c r="D22" t="n">
         <v>53</v>
@@ -1155,29 +1155,29 @@
         <v>7</v>
       </c>
       <c r="G22" t="n">
-        <v>42.8190231</v>
+        <v>34.9268074</v>
       </c>
       <c r="H22" t="n">
-        <v>38.79813368</v>
+        <v>29.9813246</v>
       </c>
       <c r="I22" t="n">
-        <v>9.80950661</v>
+        <v>29.96030959</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>22</v>
+        <v>689</v>
       </c>
       <c r="B23" t="n">
-        <v>565391.7924053016</v>
+        <v>558107.6722974024</v>
       </c>
       <c r="C23" t="n">
-        <v>5063281.329435755</v>
+        <v>5091366.275623359</v>
       </c>
       <c r="D23" t="n">
         <v>53</v>
@@ -1191,13 +1191,13 @@
         <v>7</v>
       </c>
       <c r="G23" t="n">
-        <v>46.458519</v>
+        <v>36.882988</v>
       </c>
       <c r="H23" t="n">
-        <v>23.22977645</v>
+        <v>29.52248368</v>
       </c>
       <c r="I23" t="n">
-        <v>24.07468715</v>
+        <v>28.85922257</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1207,13 +1207,13 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>23</v>
+        <v>694</v>
       </c>
       <c r="B24" t="n">
-        <v>559009.0483101853</v>
+        <v>565391.7924053016</v>
       </c>
       <c r="C24" t="n">
-        <v>5092216.249567266</v>
+        <v>5063281.329435755</v>
       </c>
       <c r="D24" t="n">
         <v>53</v>
@@ -1227,29 +1227,29 @@
         <v>7</v>
       </c>
       <c r="G24" t="n">
-        <v>39.8247299</v>
+        <v>44.0385208</v>
       </c>
       <c r="H24" t="n">
-        <v>26.0959601</v>
+        <v>15.74392408</v>
       </c>
       <c r="I24" t="n">
-        <v>30.71698458</v>
+        <v>32.753482</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>syeno granite</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>24</v>
+        <v>701</v>
       </c>
       <c r="B25" t="n">
-        <v>522110.4829939192</v>
+        <v>559009.0483101853</v>
       </c>
       <c r="C25" t="n">
-        <v>5047183.738273133</v>
+        <v>5092216.249567266</v>
       </c>
       <c r="D25" t="n">
         <v>53</v>
@@ -1263,13 +1263,13 @@
         <v>7</v>
       </c>
       <c r="G25" t="n">
-        <v>43.377491</v>
+        <v>38.3196335</v>
       </c>
       <c r="H25" t="n">
-        <v>22.68307653</v>
+        <v>20.6724718</v>
       </c>
       <c r="I25" t="n">
-        <v>29.64942722</v>
+        <v>33.12685895</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1279,13 +1279,13 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>25</v>
+        <v>734</v>
       </c>
       <c r="B26" t="n">
-        <v>532367.6892439224</v>
+        <v>522110.4829939192</v>
       </c>
       <c r="C26" t="n">
-        <v>5075625.207641378</v>
+        <v>5047183.738273133</v>
       </c>
       <c r="D26" t="n">
         <v>53</v>
@@ -1299,29 +1299,29 @@
         <v>7</v>
       </c>
       <c r="G26" t="n">
-        <v>45.117321</v>
+        <v>34.3537254</v>
       </c>
       <c r="H26" t="n">
-        <v>15.50614566</v>
+        <v>31.39634301</v>
       </c>
       <c r="I26" t="n">
-        <v>34.54141444</v>
+        <v>28.46848678</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>syeno granite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>26</v>
+        <v>744</v>
       </c>
       <c r="B27" t="n">
-        <v>565915.4080674013</v>
+        <v>532367.6892439224</v>
       </c>
       <c r="C27" t="n">
-        <v>5086079.171656215</v>
+        <v>5075625.207641378</v>
       </c>
       <c r="D27" t="n">
         <v>53</v>
@@ -1335,13 +1335,13 @@
         <v>7</v>
       </c>
       <c r="G27" t="n">
-        <v>38.9603004</v>
+        <v>35.0964546</v>
       </c>
       <c r="H27" t="n">
-        <v>31.20575863</v>
+        <v>26.33669966</v>
       </c>
       <c r="I27" t="n">
-        <v>27.12922611</v>
+        <v>33.08479084</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1351,13 +1351,13 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>27</v>
+        <v>764</v>
       </c>
       <c r="B28" t="n">
-        <v>519908.5187506026</v>
+        <v>565915.4080674013</v>
       </c>
       <c r="C28" t="n">
-        <v>5047188.614228626</v>
+        <v>5086079.171656215</v>
       </c>
       <c r="D28" t="n">
         <v>53</v>
@@ -1371,13 +1371,13 @@
         <v>7</v>
       </c>
       <c r="G28" t="n">
-        <v>39.097744</v>
+        <v>33.724617</v>
       </c>
       <c r="H28" t="n">
-        <v>25.80514282</v>
+        <v>25.90841219</v>
       </c>
       <c r="I28" t="n">
-        <v>30.62179932</v>
+        <v>36.28323458000001</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1387,13 +1387,13 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>28</v>
+        <v>805</v>
       </c>
       <c r="B29" t="n">
-        <v>540497.632944216</v>
+        <v>519908.5187506026</v>
       </c>
       <c r="C29" t="n">
-        <v>5103460.333191958</v>
+        <v>5047188.614228626</v>
       </c>
       <c r="D29" t="n">
         <v>53</v>
@@ -1407,29 +1407,29 @@
         <v>7</v>
       </c>
       <c r="G29" t="n">
-        <v>37.1306648</v>
+        <v>31.3023968</v>
       </c>
       <c r="H29" t="n">
-        <v>39.78264927</v>
+        <v>34.78060796</v>
       </c>
       <c r="I29" t="n">
-        <v>20.16112021</v>
+        <v>28.04852483</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>29</v>
+        <v>853</v>
       </c>
       <c r="B30" t="n">
-        <v>575092.6940019295</v>
+        <v>540497.632944216</v>
       </c>
       <c r="C30" t="n">
-        <v>5073653.662443674</v>
+        <v>5103460.333191958</v>
       </c>
       <c r="D30" t="n">
         <v>53</v>
@@ -1443,29 +1443,29 @@
         <v>7</v>
       </c>
       <c r="G30" t="n">
-        <v>45.2790375</v>
+        <v>33.6433716</v>
       </c>
       <c r="H30" t="n">
-        <v>45.5183571</v>
+        <v>27.90892667</v>
       </c>
       <c r="I30" t="n">
-        <v>4.948090805000001</v>
+        <v>32.54569298</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>tonalite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>30</v>
+        <v>910</v>
       </c>
       <c r="B31" t="n">
-        <v>543975.2749932968</v>
+        <v>575092.6940019295</v>
       </c>
       <c r="C31" t="n">
-        <v>5047888.304064469</v>
+        <v>5073653.662443674</v>
       </c>
       <c r="D31" t="n">
         <v>53</v>
@@ -1479,29 +1479,29 @@
         <v>7</v>
       </c>
       <c r="G31" t="n">
-        <v>44.4954262</v>
+        <v>43.7842827</v>
       </c>
       <c r="H31" t="n">
-        <v>31.82946058</v>
+        <v>28.62749903</v>
       </c>
       <c r="I31" t="n">
-        <v>17.09137133</v>
+        <v>18.76444681</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>31</v>
+        <v>917</v>
       </c>
       <c r="B32" t="n">
-        <v>581098.9289076092</v>
+        <v>543975.2749932968</v>
       </c>
       <c r="C32" t="n">
-        <v>5110327.978976392</v>
+        <v>5047888.304064469</v>
       </c>
       <c r="D32" t="n">
         <v>53</v>
@@ -1515,13 +1515,13 @@
         <v>7</v>
       </c>
       <c r="G32" t="n">
-        <v>38.5817566</v>
+        <v>31.4817734</v>
       </c>
       <c r="H32" t="n">
-        <v>31.47970353</v>
+        <v>30.59973518</v>
       </c>
       <c r="I32" t="n">
-        <v>25.98319398</v>
+        <v>32.16888196</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -1531,13 +1531,13 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>32</v>
+        <v>922</v>
       </c>
       <c r="B33" t="n">
-        <v>572785.3029470164</v>
+        <v>581098.9289076092</v>
       </c>
       <c r="C33" t="n">
-        <v>5159303.894284184</v>
+        <v>5110327.978976392</v>
       </c>
       <c r="D33" t="n">
         <v>53</v>
@@ -1551,13 +1551,13 @@
         <v>7</v>
       </c>
       <c r="G33" t="n">
-        <v>41.7577629</v>
+        <v>38.8206291</v>
       </c>
       <c r="H33" t="n">
-        <v>20.23075033</v>
+        <v>23.1943366</v>
       </c>
       <c r="I33" t="n">
-        <v>34.81060414</v>
+        <v>30.85193708</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -1567,13 +1567,13 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>33</v>
+        <v>923</v>
       </c>
       <c r="B34" t="n">
-        <v>533040.5699430353</v>
+        <v>572785.3029470164</v>
       </c>
       <c r="C34" t="n">
-        <v>5047833.354029696</v>
+        <v>5159303.894284184</v>
       </c>
       <c r="D34" t="n">
         <v>53</v>
@@ -1587,13 +1587,13 @@
         <v>7</v>
       </c>
       <c r="G34" t="n">
-        <v>36.6023636</v>
+        <v>29.3000393</v>
       </c>
       <c r="H34" t="n">
-        <v>32.27169339</v>
+        <v>40.06612354</v>
       </c>
       <c r="I34" t="n">
-        <v>26.36792261</v>
+        <v>27.43495981</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -1603,13 +1603,13 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>34</v>
+        <v>937</v>
       </c>
       <c r="B35" t="n">
-        <v>534793.5801550822</v>
+        <v>533040.5699430353</v>
       </c>
       <c r="C35" t="n">
-        <v>5044448.883697325</v>
+        <v>5047833.354029696</v>
       </c>
       <c r="D35" t="n">
         <v>53</v>
@@ -1623,13 +1623,13 @@
         <v>7</v>
       </c>
       <c r="G35" t="n">
-        <v>46.1148491</v>
+        <v>34.1962624</v>
       </c>
       <c r="H35" t="n">
-        <v>21.97552639</v>
+        <v>28.81124395</v>
       </c>
       <c r="I35" t="n">
-        <v>24.87233088</v>
+        <v>32.57749808</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -1639,13 +1639,13 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>35</v>
+        <v>956</v>
       </c>
       <c r="B36" t="n">
-        <v>580752.1065253353</v>
+        <v>534793.5801550822</v>
       </c>
       <c r="C36" t="n">
-        <v>5111387.985644632</v>
+        <v>5044448.883697325</v>
       </c>
       <c r="D36" t="n">
         <v>53</v>
@@ -1659,13 +1659,13 @@
         <v>7</v>
       </c>
       <c r="G36" t="n">
-        <v>39.4992867</v>
+        <v>33.3813934</v>
       </c>
       <c r="H36" t="n">
-        <v>30.40691397</v>
+        <v>33.03870067</v>
       </c>
       <c r="I36" t="n">
-        <v>26.22938348</v>
+        <v>29.55506271</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -1675,13 +1675,13 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>36</v>
+        <v>1002</v>
       </c>
       <c r="B37" t="n">
-        <v>539552.9372415035</v>
+        <v>580752.1065253353</v>
       </c>
       <c r="C37" t="n">
-        <v>5047731.809940154</v>
+        <v>5111387.985644632</v>
       </c>
       <c r="D37" t="n">
         <v>53</v>
@@ -1695,13 +1695,13 @@
         <v>7</v>
       </c>
       <c r="G37" t="n">
-        <v>37.132122</v>
+        <v>40.3618813</v>
       </c>
       <c r="H37" t="n">
-        <v>29.089366312</v>
+        <v>28.19518968</v>
       </c>
       <c r="I37" t="n">
-        <v>28.95470925</v>
+        <v>22.11109046</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -1711,13 +1711,13 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>37</v>
+        <v>1012</v>
       </c>
       <c r="B38" t="n">
-        <v>516907.8942512817</v>
+        <v>539552.9372415035</v>
       </c>
       <c r="C38" t="n">
-        <v>5053361.726992243</v>
+        <v>5047731.809940154</v>
       </c>
       <c r="D38" t="n">
         <v>53</v>
@@ -1731,13 +1731,13 @@
         <v>7</v>
       </c>
       <c r="G38" t="n">
-        <v>39.7728271</v>
+        <v>32.7581635</v>
       </c>
       <c r="H38" t="n">
-        <v>25.15229568</v>
+        <v>30.29943086</v>
       </c>
       <c r="I38" t="n">
-        <v>31.97569791</v>
+        <v>32.8260536</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -1747,13 +1747,13 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>38</v>
+        <v>1047</v>
       </c>
       <c r="B39" t="n">
-        <v>558060.1859698822</v>
+        <v>516907.8942512817</v>
       </c>
       <c r="C39" t="n">
-        <v>5139989.944085147</v>
+        <v>5053361.726992243</v>
       </c>
       <c r="D39" t="n">
         <v>53</v>
@@ -1767,13 +1767,13 @@
         <v>7</v>
       </c>
       <c r="G39" t="n">
-        <v>43.4918175</v>
+        <v>29.9007053</v>
       </c>
       <c r="H39" t="n">
-        <v>25.39802028</v>
+        <v>28.89692492</v>
       </c>
       <c r="I39" t="n">
-        <v>27.39366912</v>
+        <v>34.66099527</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -1783,13 +1783,13 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>39</v>
+        <v>1060</v>
       </c>
       <c r="B40" t="n">
-        <v>507593.1449852391</v>
+        <v>558060.1859698822</v>
       </c>
       <c r="C40" t="n">
-        <v>5054418.288065371</v>
+        <v>5139989.944085147</v>
       </c>
       <c r="D40" t="n">
         <v>53</v>
@@ -1803,13 +1803,13 @@
         <v>7</v>
       </c>
       <c r="G40" t="n">
-        <v>47.1571236</v>
+        <v>35.9583626</v>
       </c>
       <c r="H40" t="n">
-        <v>21.39985021</v>
+        <v>25.19945635</v>
       </c>
       <c r="I40" t="n">
-        <v>24.13693538</v>
+        <v>32.16048181</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -1819,13 +1819,13 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>40</v>
+        <v>1120</v>
       </c>
       <c r="B41" t="n">
-        <v>505402.6491015608</v>
+        <v>507593.1449852391</v>
       </c>
       <c r="C41" t="n">
-        <v>5054379.155652873</v>
+        <v>5054418.288065371</v>
       </c>
       <c r="D41" t="n">
         <v>53</v>
@@ -1839,13 +1839,13 @@
         <v>7</v>
       </c>
       <c r="G41" t="n">
-        <v>42.9145699</v>
+        <v>31.3521957</v>
       </c>
       <c r="H41" t="n">
-        <v>23.33717047</v>
+        <v>33.91468427</v>
       </c>
       <c r="I41" t="n">
-        <v>28.81775147</v>
+        <v>25.82150154</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -1855,13 +1855,13 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>41</v>
+        <v>1131</v>
       </c>
       <c r="B42" t="n">
-        <v>524059.4253751856</v>
+        <v>505402.6491015608</v>
       </c>
       <c r="C42" t="n">
-        <v>5043154.730140504</v>
+        <v>5054379.155652873</v>
       </c>
       <c r="D42" t="n">
         <v>53</v>
@@ -1875,29 +1875,29 @@
         <v>7</v>
       </c>
       <c r="G42" t="n">
-        <v>37.9366722</v>
+        <v>27.3103523</v>
       </c>
       <c r="H42" t="n">
-        <v>29.749147841</v>
+        <v>55.25109613</v>
       </c>
       <c r="I42" t="n">
-        <v>27.4656193</v>
+        <v>8.334026440000001</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>granodiorite</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>42</v>
+        <v>1253</v>
       </c>
       <c r="B43" t="n">
-        <v>501525.6692123935</v>
+        <v>524059.4253751856</v>
       </c>
       <c r="C43" t="n">
-        <v>5081109.524076643</v>
+        <v>5043154.730140504</v>
       </c>
       <c r="D43" t="n">
         <v>53</v>
@@ -1911,13 +1911,13 @@
         <v>7</v>
       </c>
       <c r="G43" t="n">
-        <v>47.8338318</v>
+        <v>30.2036457</v>
       </c>
       <c r="H43" t="n">
-        <v>25.8797337</v>
+        <v>33.6914308</v>
       </c>
       <c r="I43" t="n">
-        <v>17.70937676</v>
+        <v>30.42886622</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -1927,13 +1927,13 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>43</v>
+        <v>1259</v>
       </c>
       <c r="B44" t="n">
-        <v>533207.6317593638</v>
+        <v>501525.6692123935</v>
       </c>
       <c r="C44" t="n">
-        <v>5039211.631646615</v>
+        <v>5081109.524076643</v>
       </c>
       <c r="D44" t="n">
         <v>53</v>
@@ -1947,13 +1947,13 @@
         <v>7</v>
       </c>
       <c r="G44" t="n">
-        <v>34.5115089</v>
+        <v>35.6441689</v>
       </c>
       <c r="H44" t="n">
-        <v>34.062695473</v>
+        <v>30.33703097</v>
       </c>
       <c r="I44" t="n">
-        <v>28.92283862</v>
+        <v>26.45212193</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -1963,13 +1963,13 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44</v>
+        <v>1261</v>
       </c>
       <c r="B45" t="n">
-        <v>570478.460861077</v>
+        <v>533207.6317593638</v>
       </c>
       <c r="C45" t="n">
-        <v>5156343.838700933</v>
+        <v>5039211.631646615</v>
       </c>
       <c r="D45" t="n">
         <v>53</v>
@@ -1983,13 +1983,13 @@
         <v>7</v>
       </c>
       <c r="G45" t="n">
-        <v>38.4915657</v>
+        <v>30.3345547</v>
       </c>
       <c r="H45" t="n">
-        <v>31.03510103</v>
+        <v>32.99843088</v>
       </c>
       <c r="I45" t="n">
-        <v>27.91122095</v>
+        <v>31.04492726</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -1999,13 +1999,13 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>45</v>
+        <v>1268</v>
       </c>
       <c r="B46" t="n">
-        <v>563281.9208104421</v>
+        <v>570478.460861077</v>
       </c>
       <c r="C46" t="n">
-        <v>5142379.685941056</v>
+        <v>5156343.838700933</v>
       </c>
       <c r="D46" t="n">
         <v>53</v>
@@ -2019,13 +2019,13 @@
         <v>7</v>
       </c>
       <c r="G46" t="n">
-        <v>35.8556252</v>
+        <v>33.7165184</v>
       </c>
       <c r="H46" t="n">
-        <v>24.23370937</v>
+        <v>26.05365177</v>
       </c>
       <c r="I46" t="n">
-        <v>37.38472467</v>
+        <v>32.42410545</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -2035,13 +2035,13 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>46</v>
+        <v>1379</v>
       </c>
       <c r="B47" t="n">
-        <v>541461.5283934062</v>
+        <v>563281.9208104421</v>
       </c>
       <c r="C47" t="n">
-        <v>5084608.250605006</v>
+        <v>5142379.685941056</v>
       </c>
       <c r="D47" t="n">
         <v>53</v>
@@ -2055,29 +2055,29 @@
         <v>7</v>
       </c>
       <c r="G47" t="n">
-        <v>38.725853</v>
+        <v>36.2500114</v>
       </c>
       <c r="H47" t="n">
-        <v>44.66908208</v>
+        <v>26.74313684</v>
       </c>
       <c r="I47" t="n">
-        <v>11.95512057</v>
+        <v>27.53510002</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>47</v>
+        <v>1432</v>
       </c>
       <c r="B48" t="n">
-        <v>569061.474804734</v>
+        <v>541461.5283934062</v>
       </c>
       <c r="C48" t="n">
-        <v>5093048.385913222</v>
+        <v>5084608.250605006</v>
       </c>
       <c r="D48" t="n">
         <v>53</v>
@@ -2091,13 +2091,13 @@
         <v>7</v>
       </c>
       <c r="G48" t="n">
-        <v>41.1664391</v>
+        <v>34.0167503</v>
       </c>
       <c r="H48" t="n">
-        <v>25.4746733</v>
+        <v>25.84830387</v>
       </c>
       <c r="I48" t="n">
-        <v>29.71598869</v>
+        <v>28.24307389</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -2107,13 +2107,13 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>48</v>
+        <v>1483</v>
       </c>
       <c r="B49" t="n">
-        <v>570424.46066063</v>
+        <v>569061.474804734</v>
       </c>
       <c r="C49" t="n">
-        <v>5086108.625984614</v>
+        <v>5093048.385913222</v>
       </c>
       <c r="D49" t="n">
         <v>53</v>
@@ -2127,29 +2127,29 @@
         <v>7</v>
       </c>
       <c r="G49" t="n">
-        <v>42.3775749</v>
+        <v>26.6717129</v>
       </c>
       <c r="H49" t="n">
-        <v>35.52111763</v>
+        <v>35.82946431000001</v>
       </c>
       <c r="I49" t="n">
-        <v>16.83076023</v>
+        <v>30.95321234</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>49</v>
+        <v>1506</v>
       </c>
       <c r="B50" t="n">
-        <v>527162.4810721703</v>
+        <v>570424.46066063</v>
       </c>
       <c r="C50" t="n">
-        <v>5082237.920224085</v>
+        <v>5086108.625984614</v>
       </c>
       <c r="D50" t="n">
         <v>53</v>
@@ -2163,13 +2163,13 @@
         <v>7</v>
       </c>
       <c r="G50" t="n">
-        <v>39.4923134</v>
+        <v>26.3640289</v>
       </c>
       <c r="H50" t="n">
-        <v>25.55129574</v>
+        <v>35.87061801</v>
       </c>
       <c r="I50" t="n">
-        <v>32.06438774</v>
+        <v>31.01252436</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -2179,13 +2179,13 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>50</v>
+        <v>1513</v>
       </c>
       <c r="B51" t="n">
-        <v>569857.2671612549</v>
+        <v>527162.4810721703</v>
       </c>
       <c r="C51" t="n">
-        <v>5127168.77079299</v>
+        <v>5082237.920224085</v>
       </c>
       <c r="D51" t="n">
         <v>53</v>
@@ -2199,29 +2199,29 @@
         <v>7</v>
       </c>
       <c r="G51" t="n">
-        <v>42.7307129</v>
+        <v>27.4119873</v>
       </c>
       <c r="H51" t="n">
-        <v>24.92846388</v>
+        <v>43.449905056</v>
       </c>
       <c r="I51" t="n">
-        <v>28.73240052</v>
+        <v>21.95508882</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>granodiorite</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>51</v>
+        <v>1547</v>
       </c>
       <c r="B52" t="n">
-        <v>506489.6707440665</v>
+        <v>569857.2671612549</v>
       </c>
       <c r="C52" t="n">
-        <v>5063504.498767764</v>
+        <v>5127168.77079299</v>
       </c>
       <c r="D52" t="n">
         <v>53</v>
@@ -2235,13 +2235,13 @@
         <v>7</v>
       </c>
       <c r="G52" t="n">
-        <v>40.3364754</v>
+        <v>36.6975517</v>
       </c>
       <c r="H52" t="n">
-        <v>21.453703388</v>
+        <v>22.75966948</v>
       </c>
       <c r="I52" t="n">
-        <v>32.87863257</v>
+        <v>31.72660336</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -2251,13 +2251,13 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>52</v>
+        <v>1555</v>
       </c>
       <c r="B53" t="n">
-        <v>525986.8523287101</v>
+        <v>506489.6707440665</v>
       </c>
       <c r="C53" t="n">
-        <v>5053372.461108121</v>
+        <v>5063504.498767764</v>
       </c>
       <c r="D53" t="n">
         <v>53</v>
@@ -2271,29 +2271,29 @@
         <v>7</v>
       </c>
       <c r="G53" t="n">
-        <v>42.7401276</v>
+        <v>34.5527039</v>
       </c>
       <c r="H53" t="n">
-        <v>16.21656095</v>
+        <v>24.45124439</v>
       </c>
       <c r="I53" t="n">
-        <v>36.63852941</v>
+        <v>32.65971752</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>syeno granite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>53</v>
+        <v>1586</v>
       </c>
       <c r="B54" t="n">
-        <v>512338.6981200227</v>
+        <v>525986.8523287101</v>
       </c>
       <c r="C54" t="n">
-        <v>5057032.552711715</v>
+        <v>5053372.461108121</v>
       </c>
       <c r="D54" t="n">
         <v>53</v>
@@ -2307,29 +2307,29 @@
         <v>7</v>
       </c>
       <c r="G54" t="n">
-        <v>39.7485886</v>
+        <v>29.0849342</v>
       </c>
       <c r="H54" t="n">
-        <v>26.17129324</v>
+        <v>40.23724482</v>
       </c>
       <c r="I54" t="n">
-        <v>30.28086262</v>
+        <v>19.43892648</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>granodiorite</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>54</v>
+        <v>1602</v>
       </c>
       <c r="B55" t="n">
-        <v>570224.3917141352</v>
+        <v>512338.6981200227</v>
       </c>
       <c r="C55" t="n">
-        <v>5159263.098429198</v>
+        <v>5057032.552711715</v>
       </c>
       <c r="D55" t="n">
         <v>53</v>
@@ -2343,29 +2343,29 @@
         <v>7</v>
       </c>
       <c r="G55" t="n">
-        <v>37.1629524</v>
+        <v>34.2850571</v>
       </c>
       <c r="H55" t="n">
-        <v>27.44250759</v>
+        <v>18.56568869</v>
       </c>
       <c r="I55" t="n">
-        <v>32.85695405</v>
+        <v>41.78740919</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>syeno granite</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>55</v>
+        <v>1686</v>
       </c>
       <c r="B56" t="n">
-        <v>527603.9312957223</v>
+        <v>570224.3917141352</v>
       </c>
       <c r="C56" t="n">
-        <v>5055699.072266177</v>
+        <v>5159263.098429198</v>
       </c>
       <c r="D56" t="n">
         <v>53</v>
@@ -2379,13 +2379,13 @@
         <v>7</v>
       </c>
       <c r="G56" t="n">
-        <v>33.6139717</v>
+        <v>31.6138172</v>
       </c>
       <c r="H56" t="n">
-        <v>31.08270834</v>
+        <v>29.84785666</v>
       </c>
       <c r="I56" t="n">
-        <v>29.36569786</v>
+        <v>30.96583692</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -2395,13 +2395,13 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>56</v>
+        <v>1828</v>
       </c>
       <c r="B57" t="n">
-        <v>539642.5992341806</v>
+        <v>527603.9312957223</v>
       </c>
       <c r="C57" t="n">
-        <v>5049418.386718011</v>
+        <v>5055699.072266177</v>
       </c>
       <c r="D57" t="n">
         <v>53</v>
@@ -2415,13 +2415,13 @@
         <v>7</v>
       </c>
       <c r="G57" t="n">
-        <v>34.0873146</v>
+        <v>35.4958038</v>
       </c>
       <c r="H57" t="n">
-        <v>37.77868317999999</v>
+        <v>25.83726845</v>
       </c>
       <c r="I57" t="n">
-        <v>25.76614152</v>
+        <v>31.99190464</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -2431,13 +2431,13 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>57</v>
+        <v>1853</v>
       </c>
       <c r="B58" t="n">
-        <v>580110.1781178922</v>
+        <v>539642.5992341806</v>
       </c>
       <c r="C58" t="n">
-        <v>5111696.481300516</v>
+        <v>5049418.386718011</v>
       </c>
       <c r="D58" t="n">
         <v>53</v>
@@ -2451,13 +2451,13 @@
         <v>7</v>
       </c>
       <c r="G58" t="n">
-        <v>37.3806419</v>
+        <v>31.6399632</v>
       </c>
       <c r="H58" t="n">
-        <v>36.34214195000001</v>
+        <v>35.0730421</v>
       </c>
       <c r="I58" t="n">
-        <v>22.25583381</v>
+        <v>27.77098543</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -2467,13 +2467,13 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>58</v>
+        <v>1863</v>
       </c>
       <c r="B59" t="n">
-        <v>504545.0512021597</v>
+        <v>580110.1781178922</v>
       </c>
       <c r="C59" t="n">
-        <v>5054235.821341225</v>
+        <v>5111696.481300516</v>
       </c>
       <c r="D59" t="n">
         <v>53</v>
@@ -2487,13 +2487,13 @@
         <v>7</v>
       </c>
       <c r="G59" t="n">
-        <v>37.9814415</v>
+        <v>31.6405258</v>
       </c>
       <c r="H59" t="n">
-        <v>31.9368471</v>
+        <v>30.71564784</v>
       </c>
       <c r="I59" t="n">
-        <v>27.02231178</v>
+        <v>31.5862349</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -2503,13 +2503,13 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>59</v>
+        <v>1877</v>
       </c>
       <c r="B60" t="n">
-        <v>569016.938447515</v>
+        <v>504545.0512021597</v>
       </c>
       <c r="C60" t="n">
-        <v>5038883.197636402</v>
+        <v>5054235.821341225</v>
       </c>
       <c r="D60" t="n">
         <v>53</v>
@@ -2523,13 +2523,13 @@
         <v>7</v>
       </c>
       <c r="G60" t="n">
-        <v>37.186821</v>
+        <v>34.7886429</v>
       </c>
       <c r="H60" t="n">
-        <v>25.99966248</v>
+        <v>24.44202051</v>
       </c>
       <c r="I60" t="n">
-        <v>34.3261416</v>
+        <v>31.95138966</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -2539,13 +2539,13 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>60</v>
+        <v>1880</v>
       </c>
       <c r="B61" t="n">
-        <v>569069.3186305275</v>
+        <v>569016.938447515</v>
       </c>
       <c r="C61" t="n">
-        <v>5091177.697838046</v>
+        <v>5038883.197636402</v>
       </c>
       <c r="D61" t="n">
         <v>53</v>
@@ -2559,13 +2559,13 @@
         <v>7</v>
       </c>
       <c r="G61" t="n">
-        <v>47.079071</v>
+        <v>27.3420143</v>
       </c>
       <c r="H61" t="n">
-        <v>18.90180695</v>
+        <v>35.28024749</v>
       </c>
       <c r="I61" t="n">
-        <v>27.11418726</v>
+        <v>32.06812787</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -2575,13 +2575,13 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>61</v>
+        <v>1883</v>
       </c>
       <c r="B62" t="n">
-        <v>498909.2582819067</v>
+        <v>569069.3186305275</v>
       </c>
       <c r="C62" t="n">
-        <v>5080140.957780544</v>
+        <v>5091177.697838046</v>
       </c>
       <c r="D62" t="n">
         <v>53</v>
@@ -2595,13 +2595,13 @@
         <v>7</v>
       </c>
       <c r="G62" t="n">
-        <v>39.0298309</v>
+        <v>29.9030418</v>
       </c>
       <c r="H62" t="n">
-        <v>25.588862331</v>
+        <v>33.41734446</v>
       </c>
       <c r="I62" t="n">
-        <v>29.82482334</v>
+        <v>29.00292266</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -2611,13 +2611,13 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>62</v>
+        <v>1945</v>
       </c>
       <c r="B63" t="n">
-        <v>536294.2653092071</v>
+        <v>498909.2582819067</v>
       </c>
       <c r="C63" t="n">
-        <v>5066372.645039028</v>
+        <v>5080140.957780544</v>
       </c>
       <c r="D63" t="n">
         <v>53</v>
@@ -2631,13 +2631,13 @@
         <v>7</v>
       </c>
       <c r="G63" t="n">
-        <v>36.9002457</v>
+        <v>31.5487099</v>
       </c>
       <c r="H63" t="n">
-        <v>31.1446739</v>
+        <v>34.33184481</v>
       </c>
       <c r="I63" t="n">
-        <v>28.88671802</v>
+        <v>26.70874977</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -2647,13 +2647,13 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>63</v>
+        <v>2012</v>
       </c>
       <c r="B64" t="n">
-        <v>540405.5468054316</v>
+        <v>536294.2653092071</v>
       </c>
       <c r="C64" t="n">
-        <v>5099742.886039798</v>
+        <v>5066372.645039028</v>
       </c>
       <c r="D64" t="n">
         <v>53</v>
@@ -2667,13 +2667,13 @@
         <v>7</v>
       </c>
       <c r="G64" t="n">
-        <v>37.065773</v>
+        <v>22.4599781</v>
       </c>
       <c r="H64" t="n">
-        <v>29.76778919</v>
+        <v>38.64616028</v>
       </c>
       <c r="I64" t="n">
-        <v>29.72798571</v>
+        <v>32.67998769</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -2683,13 +2683,13 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>64</v>
+        <v>2045</v>
       </c>
       <c r="B65" t="n">
-        <v>506490.6260949525</v>
+        <v>540405.5468054316</v>
       </c>
       <c r="C65" t="n">
-        <v>5054388.232316517</v>
+        <v>5099742.886039798</v>
       </c>
       <c r="D65" t="n">
         <v>53</v>
@@ -2703,13 +2703,13 @@
         <v>7</v>
       </c>
       <c r="G65" t="n">
-        <v>39.5297089</v>
+        <v>30.5604553</v>
       </c>
       <c r="H65" t="n">
-        <v>27.31847355</v>
+        <v>28.35202038</v>
       </c>
       <c r="I65" t="n">
-        <v>30.11992436</v>
+        <v>32.04943127</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -2719,13 +2719,13 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>65</v>
+        <v>2066</v>
       </c>
       <c r="B66" t="n">
-        <v>571042.8652567336</v>
+        <v>506490.6260949525</v>
       </c>
       <c r="C66" t="n">
-        <v>5126881.561975428</v>
+        <v>5054388.232316517</v>
       </c>
       <c r="D66" t="n">
         <v>53</v>
@@ -2739,29 +2739,29 @@
         <v>7</v>
       </c>
       <c r="G66" t="n">
-        <v>36.4473114</v>
+        <v>19.8837204</v>
       </c>
       <c r="H66" t="n">
-        <v>32.1858538277</v>
+        <v>68.08497711999999</v>
       </c>
       <c r="I66" t="n">
-        <v>27.87867166</v>
+        <v>7.820885416</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>granodiorite</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>66</v>
+        <v>2097</v>
       </c>
       <c r="B67" t="n">
-        <v>573880.8883313601</v>
+        <v>571042.8652567336</v>
       </c>
       <c r="C67" t="n">
-        <v>5067637.047816628</v>
+        <v>5126881.561975428</v>
       </c>
       <c r="D67" t="n">
         <v>53</v>
@@ -2775,13 +2775,13 @@
         <v>7</v>
       </c>
       <c r="G67" t="n">
-        <v>40.7608604</v>
+        <v>28.911293</v>
       </c>
       <c r="H67" t="n">
-        <v>25.23403329</v>
+        <v>28.03589826</v>
       </c>
       <c r="I67" t="n">
-        <v>28.12018051</v>
+        <v>35.14459647</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -2791,13 +2791,13 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>67</v>
+        <v>2113</v>
       </c>
       <c r="B68" t="n">
-        <v>498274.7628404296</v>
+        <v>573880.8883313601</v>
       </c>
       <c r="C68" t="n">
-        <v>5080467.100453914</v>
+        <v>5067637.047816628</v>
       </c>
       <c r="D68" t="n">
         <v>53</v>
@@ -2811,29 +2811,29 @@
         <v>7</v>
       </c>
       <c r="G68" t="n">
-        <v>34.7895927</v>
+        <v>33.5425453</v>
       </c>
       <c r="H68" t="n">
-        <v>46.208444138</v>
+        <v>27.44220307</v>
       </c>
       <c r="I68" t="n">
-        <v>15.75405028</v>
+        <v>31.1376629</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>granodiorite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>68</v>
+        <v>2165</v>
       </c>
       <c r="B69" t="n">
-        <v>559634.8000047832</v>
+        <v>498274.7628404296</v>
       </c>
       <c r="C69" t="n">
-        <v>5133390.857511204</v>
+        <v>5080467.100453914</v>
       </c>
       <c r="D69" t="n">
         <v>53</v>
@@ -2847,13 +2847,13 @@
         <v>7</v>
       </c>
       <c r="G69" t="n">
-        <v>34.8473358</v>
+        <v>23.6749783</v>
       </c>
       <c r="H69" t="n">
-        <v>36.25694352</v>
+        <v>40.69044392</v>
       </c>
       <c r="I69" t="n">
-        <v>26.96465793</v>
+        <v>31.18650207</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -2863,13 +2863,13 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>69</v>
+        <v>2184</v>
       </c>
       <c r="B70" t="n">
-        <v>542117.9342210469</v>
+        <v>559634.8000047832</v>
       </c>
       <c r="C70" t="n">
-        <v>5068265.008549124</v>
+        <v>5133390.857511204</v>
       </c>
       <c r="D70" t="n">
         <v>53</v>
@@ -2883,13 +2883,13 @@
         <v>7</v>
       </c>
       <c r="G70" t="n">
-        <v>36.6812592</v>
+        <v>31.8574123</v>
       </c>
       <c r="H70" t="n">
-        <v>31.277931705</v>
+        <v>30.50601266</v>
       </c>
       <c r="I70" t="n">
-        <v>28.61779939</v>
+        <v>27.44817717</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -2899,13 +2899,13 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>70</v>
+        <v>2197</v>
       </c>
       <c r="B71" t="n">
-        <v>566333.6711041487</v>
+        <v>542117.9342210469</v>
       </c>
       <c r="C71" t="n">
-        <v>5045007.23137491</v>
+        <v>5068265.008549124</v>
       </c>
       <c r="D71" t="n">
         <v>53</v>
@@ -2919,13 +2919,13 @@
         <v>7</v>
       </c>
       <c r="G71" t="n">
-        <v>45.2211952</v>
+        <v>28.4014759</v>
       </c>
       <c r="H71" t="n">
-        <v>29.59661416</v>
+        <v>33.36942909</v>
       </c>
       <c r="I71" t="n">
-        <v>18.63086341</v>
+        <v>32.02855964</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -2935,13 +2935,13 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>71</v>
+        <v>2303</v>
       </c>
       <c r="B72" t="n">
-        <v>550391.8039341629</v>
+        <v>566333.6711041487</v>
       </c>
       <c r="C72" t="n">
-        <v>5113862.579776668</v>
+        <v>5045007.23137491</v>
       </c>
       <c r="D72" t="n">
         <v>53</v>
@@ -2955,13 +2955,13 @@
         <v>7</v>
       </c>
       <c r="G72" t="n">
-        <v>42.1821404</v>
+        <v>27.0745106</v>
       </c>
       <c r="H72" t="n">
-        <v>25.6385732</v>
+        <v>36.83237342</v>
       </c>
       <c r="I72" t="n">
-        <v>26.85979942</v>
+        <v>27.41622277</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -2971,13 +2971,13 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>72</v>
+        <v>2307</v>
       </c>
       <c r="B73" t="n">
-        <v>581305.1297109636</v>
+        <v>550391.8039341629</v>
       </c>
       <c r="C73" t="n">
-        <v>5110318.477548719</v>
+        <v>5113862.579776668</v>
       </c>
       <c r="D73" t="n">
         <v>53</v>
@@ -2991,13 +2991,13 @@
         <v>7</v>
       </c>
       <c r="G73" t="n">
-        <v>40.1143761</v>
+        <v>31.2849903</v>
       </c>
       <c r="H73" t="n">
-        <v>28.7864884</v>
+        <v>33.88808337</v>
       </c>
       <c r="I73" t="n">
-        <v>26.70273073</v>
+        <v>23.32059156</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -3007,13 +3007,13 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>73</v>
+        <v>2315</v>
       </c>
       <c r="B74" t="n">
-        <v>569773.7377356233</v>
+        <v>581305.1297109636</v>
       </c>
       <c r="C74" t="n">
-        <v>5124848.278597183</v>
+        <v>5110318.477548719</v>
       </c>
       <c r="D74" t="n">
         <v>53</v>
@@ -3027,13 +3027,13 @@
         <v>7</v>
       </c>
       <c r="G74" t="n">
-        <v>34.6524963</v>
+        <v>31.2298641</v>
       </c>
       <c r="H74" t="n">
-        <v>25.55145261</v>
+        <v>29.23393571</v>
       </c>
       <c r="I74" t="n">
-        <v>33.02997589</v>
+        <v>31.10781059</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -3043,13 +3043,13 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>74</v>
+        <v>2393</v>
       </c>
       <c r="B75" t="n">
-        <v>580325.5902389211</v>
+        <v>569773.7377356233</v>
       </c>
       <c r="C75" t="n">
-        <v>5111543.341640456</v>
+        <v>5124848.278597183</v>
       </c>
       <c r="D75" t="n">
         <v>53</v>
@@ -3063,13 +3063,13 @@
         <v>7</v>
       </c>
       <c r="G75" t="n">
-        <v>43.3135262</v>
+        <v>31.9423618</v>
       </c>
       <c r="H75" t="n">
-        <v>24.69380092</v>
+        <v>28.61113324</v>
       </c>
       <c r="I75" t="n">
-        <v>26.58380318</v>
+        <v>27.64816516</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -3079,13 +3079,13 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>75</v>
+        <v>2515</v>
       </c>
       <c r="B76" t="n">
-        <v>581100.068834107</v>
+        <v>580325.5902389211</v>
       </c>
       <c r="C76" t="n">
-        <v>5110172.329855956</v>
+        <v>5111543.341640456</v>
       </c>
       <c r="D76" t="n">
         <v>53</v>
@@ -3099,13 +3099,13 @@
         <v>7</v>
       </c>
       <c r="G76" t="n">
-        <v>42.6974411</v>
+        <v>29.3638287</v>
       </c>
       <c r="H76" t="n">
-        <v>24.86806808</v>
+        <v>36.97313152</v>
       </c>
       <c r="I76" t="n">
-        <v>25.54605232</v>
+        <v>25.14521652</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -3115,13 +3115,13 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>76</v>
+        <v>2568</v>
       </c>
       <c r="B77" t="n">
-        <v>567718.6317134496</v>
+        <v>581100.068834107</v>
       </c>
       <c r="C77" t="n">
-        <v>5155226.033085518</v>
+        <v>5110172.329855956</v>
       </c>
       <c r="D77" t="n">
         <v>53</v>
@@ -3135,13 +3135,13 @@
         <v>7</v>
       </c>
       <c r="G77" t="n">
-        <v>33.990715</v>
+        <v>31.4005299</v>
       </c>
       <c r="H77" t="n">
-        <v>30.04202502</v>
+        <v>34.08481462</v>
       </c>
       <c r="I77" t="n">
-        <v>30.18158498</v>
+        <v>25.85423408</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -3151,13 +3151,13 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>77</v>
+        <v>2595</v>
       </c>
       <c r="B78" t="n">
-        <v>538497.1679590259</v>
+        <v>567718.6317134496</v>
       </c>
       <c r="C78" t="n">
-        <v>5129045.925885836</v>
+        <v>5155226.033085518</v>
       </c>
       <c r="D78" t="n">
         <v>53</v>
@@ -3171,13 +3171,13 @@
         <v>7</v>
       </c>
       <c r="G78" t="n">
-        <v>36.7973251</v>
+        <v>27.410017</v>
       </c>
       <c r="H78" t="n">
-        <v>33.22981787</v>
+        <v>33.24520072</v>
       </c>
       <c r="I78" t="n">
-        <v>27.25824774</v>
+        <v>29.29440442</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -3187,13 +3187,13 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>78</v>
+        <v>2602</v>
       </c>
       <c r="B79" t="n">
-        <v>544152.6460716211</v>
+        <v>538497.1679590259</v>
       </c>
       <c r="C79" t="n">
-        <v>5128910.671410807</v>
+        <v>5129045.925885836</v>
       </c>
       <c r="D79" t="n">
         <v>53</v>
@@ -3207,13 +3207,13 @@
         <v>7</v>
       </c>
       <c r="G79" t="n">
-        <v>38.2924156</v>
+        <v>27.4907761</v>
       </c>
       <c r="H79" t="n">
-        <v>30.35353518</v>
+        <v>35.4246843</v>
       </c>
       <c r="I79" t="n">
-        <v>27.8132687</v>
+        <v>26.05726453</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -3223,13 +3223,13 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>79</v>
+        <v>2685</v>
       </c>
       <c r="B80" t="n">
-        <v>552663.6896039163</v>
+        <v>544152.6460716211</v>
       </c>
       <c r="C80" t="n">
-        <v>5121725.176024131</v>
+        <v>5128910.671410807</v>
       </c>
       <c r="D80" t="n">
         <v>53</v>
@@ -3243,13 +3243,13 @@
         <v>7</v>
       </c>
       <c r="G80" t="n">
-        <v>37.1208191</v>
+        <v>26.5635185</v>
       </c>
       <c r="H80" t="n">
-        <v>29.88819233</v>
+        <v>34.43845387</v>
       </c>
       <c r="I80" t="n">
-        <v>29.876075</v>
+        <v>27.8807009</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -3259,13 +3259,13 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>80</v>
+        <v>2820</v>
       </c>
       <c r="B81" t="n">
-        <v>565304.6604178345</v>
+        <v>552663.6896039163</v>
       </c>
       <c r="C81" t="n">
-        <v>5122171.349379447</v>
+        <v>5121725.176024131</v>
       </c>
       <c r="D81" t="n">
         <v>53</v>
@@ -3279,13 +3279,13 @@
         <v>7</v>
       </c>
       <c r="G81" t="n">
-        <v>38.0396729</v>
+        <v>28.1540031</v>
       </c>
       <c r="H81" t="n">
-        <v>30.516649012</v>
+        <v>33.75893131</v>
       </c>
       <c r="I81" t="n">
-        <v>27.83032071</v>
+        <v>25.99501309</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -3295,13 +3295,13 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>81</v>
+        <v>2974</v>
       </c>
       <c r="B82" t="n">
-        <v>567088.8416800555</v>
+        <v>565304.6604178345</v>
       </c>
       <c r="C82" t="n">
-        <v>5126184.234857324</v>
+        <v>5122171.349379447</v>
       </c>
       <c r="D82" t="n">
         <v>53</v>
@@ -3315,13 +3315,13 @@
         <v>7</v>
       </c>
       <c r="G82" t="n">
-        <v>35.3760376</v>
+        <v>28.196558</v>
       </c>
       <c r="H82" t="n">
-        <v>29.53542141</v>
+        <v>33.86719462</v>
       </c>
       <c r="I82" t="n">
-        <v>30.56647109</v>
+        <v>26.81037958</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -3331,13 +3331,13 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>82</v>
+        <v>2997</v>
       </c>
       <c r="B83" t="n">
-        <v>521288.6450273402</v>
+        <v>567088.8416800555</v>
       </c>
       <c r="C83" t="n">
-        <v>5092525.83461615</v>
+        <v>5126184.234857324</v>
       </c>
       <c r="D83" t="n">
         <v>53</v>
@@ -3351,29 +3351,29 @@
         <v>7</v>
       </c>
       <c r="G83" t="n">
-        <v>44.4121284</v>
+        <v>24.5130596</v>
       </c>
       <c r="H83" t="n">
-        <v>14.6257357</v>
+        <v>39.67332836</v>
       </c>
       <c r="I83" t="n">
-        <v>36.47769459000001</v>
+        <v>26.48450664</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>syeno granite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>83</v>
+        <v>3172</v>
       </c>
       <c r="B84" t="n">
-        <v>567964.8741717417</v>
+        <v>521288.6450273402</v>
       </c>
       <c r="C84" t="n">
-        <v>5133156.847320795</v>
+        <v>5092525.83461615</v>
       </c>
       <c r="D84" t="n">
         <v>53</v>
@@ -3387,13 +3387,13 @@
         <v>7</v>
       </c>
       <c r="G84" t="n">
-        <v>38.3348007</v>
+        <v>29.4887695</v>
       </c>
       <c r="H84" t="n">
-        <v>39.20067691</v>
+        <v>41.0022349</v>
       </c>
       <c r="I84" t="n">
-        <v>17.77492519</v>
+        <v>18.597674</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -3403,13 +3403,13 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>84</v>
+        <v>3441</v>
       </c>
       <c r="B85" t="n">
-        <v>567993.0126481585</v>
+        <v>567964.8741717417</v>
       </c>
       <c r="C85" t="n">
-        <v>5150047.77287869</v>
+        <v>5133156.847320795</v>
       </c>
       <c r="D85" t="n">
         <v>53</v>
@@ -3423,29 +3423,29 @@
         <v>7</v>
       </c>
       <c r="G85" t="n">
-        <v>40.1349258</v>
+        <v>21.3447933</v>
       </c>
       <c r="H85" t="n">
-        <v>18.68900803</v>
+        <v>40.44143904</v>
       </c>
       <c r="I85" t="n">
-        <v>36.43763237</v>
+        <v>25.30271876</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>syeno granite</t>
+          <t>monzo granite</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>85</v>
+        <v>3499</v>
       </c>
       <c r="B86" t="n">
-        <v>555188.4150263662</v>
+        <v>567993.0126481585</v>
       </c>
       <c r="C86" t="n">
-        <v>5129031.483073354</v>
+        <v>5150047.77287869</v>
       </c>
       <c r="D86" t="n">
         <v>53</v>
@@ -3459,29 +3459,29 @@
         <v>7</v>
       </c>
       <c r="G86" t="n">
-        <v>36.9279709</v>
+        <v>25.4058228</v>
       </c>
       <c r="H86" t="n">
-        <v>30.02415919</v>
+        <v>42.46784783</v>
       </c>
       <c r="I86" t="n">
-        <v>29.81762489</v>
+        <v>22.27750777</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>granodiorite</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>86</v>
+        <v>3626</v>
       </c>
       <c r="B87" t="n">
-        <v>567361.8666493093</v>
+        <v>555188.4150263662</v>
       </c>
       <c r="C87" t="n">
-        <v>5139323.414264632</v>
+        <v>5129031.483073354</v>
       </c>
       <c r="D87" t="n">
         <v>53</v>
@@ -3495,13 +3495,13 @@
         <v>7</v>
       </c>
       <c r="G87" t="n">
-        <v>37.6014175</v>
+        <v>26.9193859</v>
       </c>
       <c r="H87" t="n">
-        <v>27.6301109</v>
+        <v>37.61149676</v>
       </c>
       <c r="I87" t="n">
-        <v>31.29138164</v>
+        <v>22.87704674</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -3511,13 +3511,13 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>87</v>
+        <v>3656</v>
       </c>
       <c r="B88" t="n">
-        <v>528606.8919574161</v>
+        <v>567361.8666493093</v>
       </c>
       <c r="C88" t="n">
-        <v>5047823.908504218</v>
+        <v>5139323.414264632</v>
       </c>
       <c r="D88" t="n">
         <v>53</v>
@@ -3531,13 +3531,13 @@
         <v>7</v>
       </c>
       <c r="G88" t="n">
-        <v>36.767231</v>
+        <v>21.530117</v>
       </c>
       <c r="H88" t="n">
-        <v>29.0576112</v>
+        <v>37.51738837</v>
       </c>
       <c r="I88" t="n">
-        <v>29.94542117</v>
+        <v>26.56063943</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
@@ -3547,13 +3547,13 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>88</v>
+        <v>3703</v>
       </c>
       <c r="B89" t="n">
-        <v>568309.9284499349</v>
+        <v>528606.8919574161</v>
       </c>
       <c r="C89" t="n">
-        <v>5150361.038924702</v>
+        <v>5047823.908504218</v>
       </c>
       <c r="D89" t="n">
         <v>53</v>
@@ -3567,29 +3567,29 @@
         <v>7</v>
       </c>
       <c r="G89" t="n">
-        <v>39.4871254</v>
+        <v>19.8495655</v>
       </c>
       <c r="H89" t="n">
-        <v>30.89446949</v>
+        <v>50.57801516</v>
       </c>
       <c r="I89" t="n">
-        <v>25.43460846</v>
+        <v>16.99301744</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>granodiorite</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>89</v>
+        <v>3922</v>
       </c>
       <c r="B90" t="n">
-        <v>539595.1187069751</v>
+        <v>568309.9284499349</v>
       </c>
       <c r="C90" t="n">
-        <v>5041564.293380312</v>
+        <v>5150361.038924702</v>
       </c>
       <c r="D90" t="n">
         <v>53</v>
@@ -3603,13 +3603,13 @@
         <v>7</v>
       </c>
       <c r="G90" t="n">
-        <v>42.9506798</v>
+        <v>24.0105476</v>
       </c>
       <c r="H90" t="n">
-        <v>24.69643163</v>
+        <v>33.92303925</v>
       </c>
       <c r="I90" t="n">
-        <v>26.11972391</v>
+        <v>24.41860695</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
@@ -3619,13 +3619,13 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>90</v>
+        <v>3941</v>
       </c>
       <c r="B91" t="n">
-        <v>563833.5585524277</v>
+        <v>539595.1187069751</v>
       </c>
       <c r="C91" t="n">
-        <v>5140374.661337747</v>
+        <v>5041564.293380312</v>
       </c>
       <c r="D91" t="n">
         <v>53</v>
@@ -3639,13 +3639,13 @@
         <v>7</v>
       </c>
       <c r="G91" t="n">
-        <v>34.0070419</v>
+        <v>19.2705288</v>
       </c>
       <c r="H91" t="n">
-        <v>43.02372431000001</v>
+        <v>41.71941109</v>
       </c>
       <c r="I91" t="n">
-        <v>19.06161306</v>
+        <v>22.40167121</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
@@ -3655,13 +3655,13 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>91</v>
+        <v>3956</v>
       </c>
       <c r="B92" t="n">
-        <v>535815.8748681715</v>
+        <v>563833.5585524277</v>
       </c>
       <c r="C92" t="n">
-        <v>5036525.222253035</v>
+        <v>5140374.661337747</v>
       </c>
       <c r="D92" t="n">
         <v>53</v>
@@ -3675,13 +3675,13 @@
         <v>7</v>
       </c>
       <c r="G92" t="n">
-        <v>43.0365143</v>
+        <v>17.3730392</v>
       </c>
       <c r="H92" t="n">
-        <v>20.446504774</v>
+        <v>38.13043669</v>
       </c>
       <c r="I92" t="n">
-        <v>30.95087417</v>
+        <v>27.03193011</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
@@ -3691,13 +3691,13 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>92</v>
+        <v>3973</v>
       </c>
       <c r="B93" t="n">
-        <v>565657.8528384352</v>
+        <v>535815.8748681715</v>
       </c>
       <c r="C93" t="n">
-        <v>5139624.415279168</v>
+        <v>5036525.222253035</v>
       </c>
       <c r="D93" t="n">
         <v>53</v>
@@ -3711,29 +3711,29 @@
         <v>7</v>
       </c>
       <c r="G93" t="n">
-        <v>40.6544418</v>
+        <v>33.1556511</v>
       </c>
       <c r="H93" t="n">
-        <v>17.140521835</v>
+        <v>29.32677213</v>
       </c>
       <c r="I93" t="n">
-        <v>37.93265607</v>
+        <v>3.02212474</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>syeno granite</t>
+          <t>tonalite</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>93</v>
+        <v>4060</v>
       </c>
       <c r="B94" t="n">
-        <v>570998.3322040766</v>
+        <v>565657.8528384352</v>
       </c>
       <c r="C94" t="n">
-        <v>5138589.622374875</v>
+        <v>5139624.415279168</v>
       </c>
       <c r="D94" t="n">
         <v>53</v>
@@ -3747,13 +3747,13 @@
         <v>7</v>
       </c>
       <c r="G94" t="n">
-        <v>39.8007355</v>
+        <v>20.1343098</v>
       </c>
       <c r="H94" t="n">
-        <v>24.39601726</v>
+        <v>39.92220897</v>
       </c>
       <c r="I94" t="n">
-        <v>32.81093104</v>
+        <v>25.21449453</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
@@ -3763,13 +3763,13 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>94</v>
+        <v>4084</v>
       </c>
       <c r="B95" t="n">
-        <v>526547.6246886232</v>
+        <v>570998.3322040766</v>
       </c>
       <c r="C95" t="n">
-        <v>5046634.071246049</v>
+        <v>5138589.622374875</v>
       </c>
       <c r="D95" t="n">
         <v>53</v>
@@ -3783,13 +3783,13 @@
         <v>7</v>
       </c>
       <c r="G95" t="n">
-        <v>39.0439873</v>
+        <v>17.4091816</v>
       </c>
       <c r="H95" t="n">
-        <v>21.93871856</v>
+        <v>43.03595314</v>
       </c>
       <c r="I95" t="n">
-        <v>35.01071297</v>
+        <v>26.38327256</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
@@ -3799,13 +3799,13 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>95</v>
+        <v>4132</v>
       </c>
       <c r="B96" t="n">
-        <v>537059.931744913</v>
+        <v>526547.6246886232</v>
       </c>
       <c r="C96" t="n">
-        <v>5066141.780659813</v>
+        <v>5046634.071246049</v>
       </c>
       <c r="D96" t="n">
         <v>53</v>
@@ -3819,29 +3819,29 @@
         <v>7</v>
       </c>
       <c r="G96" t="n">
-        <v>39.037262</v>
+        <v>17.0612106</v>
       </c>
       <c r="H96" t="n">
-        <v>27.20642169</v>
+        <v>47.88221246000001</v>
       </c>
       <c r="I96" t="n">
-        <v>30.19144073</v>
+        <v>18.47339844</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>granodiorite</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>96</v>
+        <v>4167</v>
       </c>
       <c r="B97" t="n">
-        <v>546422.0200153553</v>
+        <v>537059.931744913</v>
       </c>
       <c r="C97" t="n">
-        <v>5042070.380674526</v>
+        <v>5066141.780659813</v>
       </c>
       <c r="D97" t="n">
         <v>53</v>
@@ -3855,29 +3855,30 @@
         <v>7</v>
       </c>
       <c r="G97" t="n">
-        <v>38.9530067</v>
+        <v>10.1381502</v>
       </c>
       <c r="H97" t="n">
-        <v>29.14694322</v>
+        <v>47.46733268</v>
       </c>
       <c r="I97" t="n">
-        <v>28.44131702</v>
+        <v>23.92024535</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>97</v>
+        <v>4194</v>
       </c>
       <c r="B98" t="n">
-        <v>526018.2350126458</v>
+        <v>546422.0200153553</v>
       </c>
       <c r="C98" t="n">
-        <v>5042862.241628332</v>
+        <v>5042070.380674526</v>
       </c>
       <c r="D98" t="n">
         <v>53</v>
@@ -3891,13 +3892,13 @@
         <v>7</v>
       </c>
       <c r="G98" t="n">
-        <v>36.9701843</v>
+        <v>16.5002213</v>
       </c>
       <c r="H98" t="n">
-        <v>28.63032659</v>
+        <v>34.98412331</v>
       </c>
       <c r="I98" t="n">
-        <v>31.80666656</v>
+        <v>24.72060779</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
@@ -3907,13 +3908,13 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>98</v>
+        <v>4232</v>
       </c>
       <c r="B99" t="n">
-        <v>531250.2448420309</v>
+        <v>526018.2350126458</v>
       </c>
       <c r="C99" t="n">
-        <v>5036708.773742588</v>
+        <v>5042862.241628332</v>
       </c>
       <c r="D99" t="n">
         <v>53</v>
@@ -3927,29 +3928,30 @@
         <v>7</v>
       </c>
       <c r="G99" t="n">
-        <v>38.9701347</v>
+        <v>15.6085234</v>
       </c>
       <c r="H99" t="n">
-        <v>27.09273049</v>
+        <v>43.60052765</v>
       </c>
       <c r="I99" t="n">
-        <v>30.35600093</v>
+        <v>20.41635245</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>99</v>
+        <v>4267</v>
       </c>
       <c r="B100" t="n">
-        <v>561486.9361385047</v>
+        <v>531250.2448420309</v>
       </c>
       <c r="C100" t="n">
-        <v>5141198.707528502</v>
+        <v>5036708.773742588</v>
       </c>
       <c r="D100" t="n">
         <v>53</v>
@@ -3963,29 +3965,30 @@
         <v>7</v>
       </c>
       <c r="G100" t="n">
-        <v>45.5016479</v>
+        <v>15.1717558</v>
       </c>
       <c r="H100" t="n">
-        <v>14.67461935</v>
+        <v>46.71600252</v>
       </c>
       <c r="I100" t="n">
-        <v>34.15152943</v>
+        <v>17.79524518</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>syeno granite</t>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>100</v>
+        <v>4307</v>
       </c>
       <c r="B101" t="n">
-        <v>563260.4397072025</v>
+        <v>561486.9361385047</v>
       </c>
       <c r="C101" t="n">
-        <v>5114646.279282388</v>
+        <v>5141198.707528502</v>
       </c>
       <c r="D101" t="n">
         <v>53</v>
@@ -3999,29 +4002,29 @@
         <v>7</v>
       </c>
       <c r="G101" t="n">
-        <v>39.0899849</v>
+        <v>17.1792202</v>
       </c>
       <c r="H101" t="n">
-        <v>31.28924327</v>
+        <v>44.44255748</v>
       </c>
       <c r="I101" t="n">
-        <v>26.20247455</v>
+        <v>16.28151682</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>granodiorite</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>101</v>
+        <v>4508</v>
       </c>
       <c r="B102" t="n">
-        <v>564967.071344587</v>
+        <v>563260.4397072025</v>
       </c>
       <c r="C102" t="n">
-        <v>5113836.84423849</v>
+        <v>5114646.279282388</v>
       </c>
       <c r="D102" t="n">
         <v>53</v>
@@ -4035,53 +4038,90 @@
         <v>7</v>
       </c>
       <c r="G102" t="n">
-        <v>37.8524323</v>
+        <v>4.37206984</v>
       </c>
       <c r="H102" t="n">
-        <v>28.80200243</v>
+        <v>44.53635616</v>
       </c>
       <c r="I102" t="n">
-        <v>30.02317452</v>
+        <v>27.14940244</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>monzo granite</t>
+          <t>quartz monzonite</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>102</v>
+        <v>4601</v>
       </c>
       <c r="B103" t="n">
+        <v>564967.071344587</v>
+      </c>
+      <c r="C103" t="n">
+        <v>5113836.84423849</v>
+      </c>
+      <c r="D103" t="n">
+        <v>53</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>7</v>
+      </c>
+      <c r="G103" t="n">
+        <v>2.79684162</v>
+      </c>
+      <c r="H103" t="n">
+        <v>45.32122408</v>
+      </c>
+      <c r="I103" t="n">
+        <v>21.42237872</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>monzodiorite monzogabbro</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>4642</v>
+      </c>
+      <c r="B104" t="n">
         <v>577326.668959055</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C104" t="n">
         <v>5042370.020252358</v>
       </c>
-      <c r="D103" t="n">
-        <v>53</v>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="F103" t="n">
-        <v>7</v>
-      </c>
-      <c r="G103" t="n">
-        <v>41.9009399</v>
-      </c>
-      <c r="H103" t="n">
-        <v>42.97053678</v>
-      </c>
-      <c r="I103" t="n">
-        <v>9.695464040000001</v>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>granodiorite</t>
+      <c r="D104" t="n">
+        <v>53</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>7</v>
+      </c>
+      <c r="G104" t="n">
+        <v>3.69570494</v>
+      </c>
+      <c r="H104" t="n">
+        <v>49.30025574</v>
+      </c>
+      <c r="I104" t="n">
+        <v>19.92633916</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>quartz monzodiorite
+quartz monzogabbro</t>
         </is>
       </c>
     </row>
